--- a/biology/Médecine/Muscle_brachio-radial/Muscle_brachio-radial.xlsx
+++ b/biology/Médecine/Muscle_brachio-radial/Muscle_brachio-radial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle brachio-radial (ou muscle long supinateur ou muscle huméro-stylo-radial ou muscle satellite de l'artère radiale) est un muscle allongé et aplati de la région latérale de l'avant-bras[1]. Il est situé dans le plan superficiel[2] de la loge antébrachiale postérieure[3],[4]. C'est l'un des trois muscles fléchisseurs du coude avec le muscle biceps brachial et le muscle brachial[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle brachio-radial (ou muscle long supinateur ou muscle huméro-stylo-radial ou muscle satellite de l'artère radiale) est un muscle allongé et aplati de la région latérale de l'avant-bras. Il est situé dans le plan superficiel de la loge antébrachiale postérieure,. C'est l'un des trois muscles fléchisseurs du coude avec le muscle biceps brachial et le muscle brachial.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle brachio-radial se fixe en haut sur le bord latéral de l'os humérus juste au-dessus de l'insertion du muscle long extenseur radial du carpe et sur le septum intermusculaire latéral du bras.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle brachio-radial se dirige verticalement, recouvrant les muscles long extenseur radial du carpe et court extenseur radial du carpe dans la partie latérale de l'avant bras.
 </t>
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle brachio-radial s'insère en bas sur le processus styloïde du radius.
 </t>
@@ -604,9 +622,11 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle brachio-radial  est innervé directement par le nerf du muscle brachio-radial qui nait du nerf radial avant sa division en  rameau superficiel et rameau profond[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle brachio-radial  est innervé directement par le nerf du muscle brachio-radial qui nait du nerf radial avant sa division en  rameau superficiel et rameau profond.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce muscle est fléchisseur du coude, et ramène l'avant bras en position neutre de prono-supination (il fait de la supination si ce dernier est en pronation et de la pronation si celui-ci est en supination)[6]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce muscle est fléchisseur du coude, et ramène l'avant bras en position neutre de prono-supination (il fait de la supination si ce dernier est en pronation et de la pronation si celui-ci est en supination)
 </t>
         </is>
       </c>
